--- a/news_scraper/sample_data/scraping_data_desc.xlsx
+++ b/news_scraper/sample_data/scraping_data_desc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeonbyeongjin/anaconda3_workspace/git-news-scrapper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeonbyeongjin/anaconda3_workspace/git-teanaps-web-scrapper/news_scraper/sample_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4F21DF-1EF6-5942-B1FC-C16679D12582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E746CC69-0FE2-8C48-8001-4A27E0C772D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1500" windowWidth="28300" windowHeight="17440" activeTab="1" xr2:uid="{44E156C2-BC69-C345-8050-B7D911FFCB47}"/>
   </bookViews>
@@ -153,12 +153,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>대댓글 여부 
-(0: 댓글, 
- 1: 대댓글)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>리액션 개수(일반기사)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1010,6 +1004,12 @@
   </si>
   <si>
     <t>이게 무슨의미가 있니 그럼 올해만 따져도 미세먼지없는 봄 여름 가을이였는데 그땐 경유차들 다 집에있었냐? 결국 문제는 짱개인데 거기다가는 말못하고 똑같이 문제있는 가솔린gdi 차들도 저항 심할것같고 높으신분들도 타고다니는 차랑에 gdi니 말못하고 만만한 디젤만 조지겠다는거잖어</t>
+  </si>
+  <si>
+    <t>대댓글 여부 
+(1: 댓글, 
+ 0: 대댓글)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1528,7 +1528,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -1536,14 +1536,14 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K1" s="17"/>
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
       <c r="O1" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P1" s="16"/>
       <c r="Q1" s="16"/>
@@ -1570,13 +1570,13 @@
         <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>15</v>
@@ -1591,7 +1591,7 @@
         <v>16</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>21</v>
@@ -1620,7 +1620,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="4">
         <v>37</v>
@@ -1652,21 +1652,21 @@
         <v>2</v>
       </c>
       <c r="T3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
@@ -1698,21 +1698,21 @@
         <v>0</v>
       </c>
       <c r="T4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
@@ -1744,21 +1744,21 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="V5" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
@@ -1790,21 +1790,21 @@
         <v>0</v>
       </c>
       <c r="T6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="U6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="V6" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4">
         <v>41</v>
@@ -1836,21 +1836,21 @@
         <v>1</v>
       </c>
       <c r="T7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="V7" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="4">
         <v>61</v>
@@ -1882,13 +1882,13 @@
         <v>0</v>
       </c>
       <c r="T8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="U8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="V8" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1896,7 +1896,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="4">
         <v>22</v>
@@ -1928,21 +1928,21 @@
         <v>0</v>
       </c>
       <c r="T9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="U9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="V9" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="4">
         <v>2</v>
@@ -1974,13 +1974,13 @@
         <v>0</v>
       </c>
       <c r="T10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="U10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="U10" s="4" t="s">
+      <c r="V10" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2004,7 +2004,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB9B92E-7370-5744-A4A7-DD1C70AD56CC}">
   <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
@@ -2024,7 +2026,7 @@
         <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>312</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>25</v>
@@ -2065,10 +2067,10 @@
         <v>-1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="G2" s="4">
         <v>177</v>
@@ -2077,10 +2079,10 @@
         <v>17</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2097,10 +2099,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="G3" s="4">
         <v>19</v>
@@ -2109,10 +2111,10 @@
         <v>3</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="G4" s="4">
         <v>6</v>
@@ -2141,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2161,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
@@ -2176,7 +2178,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2193,10 +2195,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -2208,7 +2210,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2225,22 +2227,22 @@
         <v>0</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="J7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2257,22 +2259,22 @@
         <v>0</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="J8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2289,22 +2291,22 @@
         <v>0</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="J9" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2321,22 +2323,22 @@
         <v>0</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="J10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2353,10 +2355,10 @@
         <v>-1</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="G11" s="4">
         <v>73</v>
@@ -2365,10 +2367,10 @@
         <v>29</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2385,10 +2387,10 @@
         <v>9</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
@@ -2397,10 +2399,10 @@
         <v>9</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2417,10 +2419,10 @@
         <v>9</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="G13" s="4">
         <v>1</v>
@@ -2429,10 +2431,10 @@
         <v>8</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2449,10 +2451,10 @@
         <v>9</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="G14" s="4">
         <v>2</v>
@@ -2461,10 +2463,10 @@
         <v>4</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2481,11 +2483,11 @@
         <v>9</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="G15" s="4">
         <v>0</v>
       </c>
@@ -2496,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2516,19 +2518,19 @@
         <v>9</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="J16" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2545,22 +2547,22 @@
         <v>9</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G17" s="4">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="J17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2577,11 +2579,11 @@
         <v>9</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="G18" s="4">
         <v>0</v>
       </c>
@@ -2592,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2609,10 +2611,10 @@
         <v>-1</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="G19" s="4">
         <v>48</v>
@@ -2621,10 +2623,10 @@
         <v>11</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2641,22 +2643,22 @@
         <v>17</v>
       </c>
       <c r="E20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G20" s="4">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="J20" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2676,7 +2678,7 @@
         <v>4</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G21" s="4">
         <v>25</v>
@@ -2685,10 +2687,10 @@
         <v>1</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2705,10 +2707,10 @@
         <v>-1</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="G22" s="4">
         <v>85</v>
@@ -2717,10 +2719,10 @@
         <v>69</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2737,10 +2739,10 @@
         <v>20</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G23" s="4">
         <v>8</v>
@@ -2749,10 +2751,10 @@
         <v>6</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2769,10 +2771,10 @@
         <v>20</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="G24" s="4">
         <v>5</v>
@@ -2781,10 +2783,10 @@
         <v>4</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2801,22 +2803,22 @@
         <v>20</v>
       </c>
       <c r="E25" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G25" s="4">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4">
-        <v>0</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="J25" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2833,22 +2835,22 @@
         <v>20</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F26" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="G26" s="4">
-        <v>0</v>
-      </c>
-      <c r="H26" s="4">
-        <v>1</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="J26" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2868,7 +2870,7 @@
         <v>9</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G27" s="4">
         <v>0</v>
@@ -2880,7 +2882,7 @@
         <v>2</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2897,10 +2899,10 @@
         <v>-1</v>
       </c>
       <c r="E28" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="G28" s="4">
         <v>3</v>
@@ -2909,10 +2911,10 @@
         <v>0</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2929,10 +2931,10 @@
         <v>-1</v>
       </c>
       <c r="E29" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="G29" s="4">
         <v>4</v>
@@ -2941,10 +2943,10 @@
         <v>2</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2961,10 +2963,10 @@
         <v>-1</v>
       </c>
       <c r="E30" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="G30" s="4">
         <v>2</v>
@@ -2973,10 +2975,10 @@
         <v>0</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2993,10 +2995,10 @@
         <v>-1</v>
       </c>
       <c r="E31" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="G31" s="4">
         <v>2</v>
@@ -3005,10 +3007,10 @@
         <v>0</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3025,10 +3027,10 @@
         <v>-1</v>
       </c>
       <c r="E32" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="G32" s="4">
         <v>2</v>
@@ -3037,10 +3039,10 @@
         <v>0</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3057,10 +3059,10 @@
         <v>-1</v>
       </c>
       <c r="E33" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="G33" s="4">
         <v>98</v>
@@ -3069,10 +3071,10 @@
         <v>5</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3089,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="E34" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="G34" s="4">
         <v>0</v>
@@ -3104,7 +3106,7 @@
         <v>2</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3121,22 +3123,22 @@
         <v>0</v>
       </c>
       <c r="E35" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G35" s="4">
-        <v>1</v>
-      </c>
-      <c r="H35" s="4">
-        <v>0</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="J35" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3153,11 +3155,11 @@
         <v>0</v>
       </c>
       <c r="E36" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>157</v>
-      </c>
       <c r="G36" s="4">
         <v>0</v>
       </c>
@@ -3168,7 +3170,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -3185,10 +3187,10 @@
         <v>-1</v>
       </c>
       <c r="E37" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="G37" s="4">
         <v>56</v>
@@ -3197,10 +3199,10 @@
         <v>3</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3217,22 +3219,22 @@
         <v>4</v>
       </c>
       <c r="E38" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G38" s="4">
-        <v>0</v>
-      </c>
-      <c r="H38" s="4">
-        <v>0</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="J38" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -3249,10 +3251,10 @@
         <v>-1</v>
       </c>
       <c r="E39" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="G39" s="4">
         <v>24</v>
@@ -3261,10 +3263,10 @@
         <v>2</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -3281,10 +3283,10 @@
         <v>-1</v>
       </c>
       <c r="E40" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="G40" s="4">
         <v>22</v>
@@ -3293,10 +3295,10 @@
         <v>7</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -3313,10 +3315,10 @@
         <v>-1</v>
       </c>
       <c r="E41" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="G41" s="4">
         <v>18</v>
@@ -3325,10 +3327,10 @@
         <v>5</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -3345,11 +3347,11 @@
         <v>8</v>
       </c>
       <c r="E42" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="G42" s="4">
         <v>0</v>
       </c>
@@ -3360,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3377,10 +3379,10 @@
         <v>-1</v>
       </c>
       <c r="E43" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="G43" s="4">
         <v>7</v>
@@ -3389,10 +3391,10 @@
         <v>1</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -3409,10 +3411,10 @@
         <v>-1</v>
       </c>
       <c r="E44" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="G44" s="4">
         <v>7</v>
@@ -3421,10 +3423,10 @@
         <v>3</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -3441,10 +3443,10 @@
         <v>-1</v>
       </c>
       <c r="E45" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="G45" s="4">
         <v>4</v>
@@ -3453,10 +3455,10 @@
         <v>1</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -3473,10 +3475,10 @@
         <v>-1</v>
       </c>
       <c r="E46" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="G46" s="4">
         <v>4</v>
@@ -3485,10 +3487,10 @@
         <v>1</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -3505,10 +3507,10 @@
         <v>-1</v>
       </c>
       <c r="E47" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="G47" s="4">
         <v>172</v>
@@ -3517,10 +3519,10 @@
         <v>16</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -3537,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="E48" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="G48" s="4">
         <v>6</v>
@@ -3549,10 +3551,10 @@
         <v>2</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -3569,10 +3571,10 @@
         <v>0</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G49" s="4">
         <v>9</v>
@@ -3581,10 +3583,10 @@
         <v>4</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -3601,10 +3603,10 @@
         <v>0</v>
       </c>
       <c r="E50" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="G50" s="4">
         <v>4</v>
@@ -3613,10 +3615,10 @@
         <v>1</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -3633,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="E51" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="G51" s="4">
         <v>3</v>
@@ -3645,10 +3647,10 @@
         <v>0</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -3665,22 +3667,22 @@
         <v>0</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F52" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0</v>
+      </c>
+      <c r="I52" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="G52" s="4">
-        <v>0</v>
-      </c>
-      <c r="H52" s="4">
-        <v>0</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>202</v>
-      </c>
       <c r="J52" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3697,10 +3699,10 @@
         <v>-1</v>
       </c>
       <c r="E53" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="G53" s="4">
         <v>94</v>
@@ -3709,10 +3711,10 @@
         <v>3</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -3729,10 +3731,10 @@
         <v>-1</v>
       </c>
       <c r="E54" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>207</v>
       </c>
       <c r="G54" s="4">
         <v>72</v>
@@ -3741,10 +3743,10 @@
         <v>4</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -3764,7 +3766,7 @@
         <v>6</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G55" s="4">
         <v>3</v>
@@ -3773,10 +3775,10 @@
         <v>1</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -3793,10 +3795,10 @@
         <v>-1</v>
       </c>
       <c r="E56" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>212</v>
       </c>
       <c r="G56" s="4">
         <v>43</v>
@@ -3805,10 +3807,10 @@
         <v>7</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -3825,10 +3827,10 @@
         <v>-1</v>
       </c>
       <c r="E57" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="G57" s="4">
         <v>33</v>
@@ -3837,10 +3839,10 @@
         <v>11</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3857,10 +3859,10 @@
         <v>-1</v>
       </c>
       <c r="E58" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>218</v>
       </c>
       <c r="G58" s="4">
         <v>8</v>
@@ -3869,10 +3871,10 @@
         <v>2</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3889,10 +3891,10 @@
         <v>11</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G59" s="4">
         <v>0</v>
@@ -3904,7 +3906,7 @@
         <v>2</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3921,10 +3923,10 @@
         <v>-1</v>
       </c>
       <c r="E60" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>222</v>
       </c>
       <c r="G60" s="4">
         <v>7</v>
@@ -3933,10 +3935,10 @@
         <v>1</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -3953,10 +3955,10 @@
         <v>-1</v>
       </c>
       <c r="E61" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="G61" s="4">
         <v>6</v>
@@ -3965,10 +3967,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3985,10 +3987,10 @@
         <v>-1</v>
       </c>
       <c r="E62" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>228</v>
       </c>
       <c r="G62" s="4">
         <v>6</v>
@@ -3997,10 +3999,10 @@
         <v>1</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -4017,22 +4019,22 @@
         <v>15</v>
       </c>
       <c r="E63" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="G63" s="4">
+        <v>0</v>
+      </c>
+      <c r="H63" s="4">
+        <v>0</v>
+      </c>
+      <c r="I63" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="G63" s="4">
-        <v>0</v>
-      </c>
-      <c r="H63" s="4">
-        <v>0</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>232</v>
-      </c>
       <c r="J63" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -4049,11 +4051,11 @@
         <v>15</v>
       </c>
       <c r="E64" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F64" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="G64" s="4">
         <v>0</v>
       </c>
@@ -4064,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -4081,10 +4083,10 @@
         <v>-1</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G65" s="4">
         <v>12</v>
@@ -4093,10 +4095,10 @@
         <v>5</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -4116,19 +4118,19 @@
         <v>5</v>
       </c>
       <c r="F66" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="G66" s="4">
+        <v>0</v>
+      </c>
+      <c r="H66" s="4">
+        <v>0</v>
+      </c>
+      <c r="I66" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="G66" s="4">
-        <v>0</v>
-      </c>
-      <c r="H66" s="4">
-        <v>0</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="J66" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -4145,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="E67" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F67" s="4" t="s">
         <v>239</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>240</v>
       </c>
       <c r="G67" s="4">
         <v>0</v>
@@ -4160,7 +4162,7 @@
         <v>2</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -4177,22 +4179,22 @@
         <v>0</v>
       </c>
       <c r="E68" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F68" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="G68" s="4">
+        <v>0</v>
+      </c>
+      <c r="H68" s="4">
+        <v>0</v>
+      </c>
+      <c r="I68" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="G68" s="4">
-        <v>0</v>
-      </c>
-      <c r="H68" s="4">
-        <v>0</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>243</v>
-      </c>
       <c r="J68" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -4209,10 +4211,10 @@
         <v>-1</v>
       </c>
       <c r="E69" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F69" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>245</v>
       </c>
       <c r="G69" s="4">
         <v>5</v>
@@ -4221,10 +4223,10 @@
         <v>0</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -4241,10 +4243,10 @@
         <v>-1</v>
       </c>
       <c r="E70" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F70" s="4" t="s">
         <v>247</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>248</v>
       </c>
       <c r="G70" s="4">
         <v>14</v>
@@ -4253,10 +4255,10 @@
         <v>10</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -4276,7 +4278,7 @@
         <v>3</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G71" s="4">
         <v>7</v>
@@ -4285,10 +4287,10 @@
         <v>3</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -4308,19 +4310,19 @@
         <v>5</v>
       </c>
       <c r="F72" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G72" s="4">
+        <v>1</v>
+      </c>
+      <c r="H72" s="4">
+        <v>0</v>
+      </c>
+      <c r="I72" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="G72" s="4">
-        <v>1</v>
-      </c>
-      <c r="H72" s="4">
-        <v>0</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>253</v>
-      </c>
       <c r="J72" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -4337,10 +4339,10 @@
         <v>-1</v>
       </c>
       <c r="E73" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="F73" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="G73" s="4">
         <v>5</v>
@@ -4349,10 +4351,10 @@
         <v>3</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -4369,10 +4371,10 @@
         <v>-1</v>
       </c>
       <c r="E74" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F74" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>258</v>
       </c>
       <c r="G74" s="4">
         <v>2</v>
@@ -4381,10 +4383,10 @@
         <v>0</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -4401,22 +4403,22 @@
         <v>-1</v>
       </c>
       <c r="E75" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F75" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="G75" s="4">
+        <v>1</v>
+      </c>
+      <c r="H75" s="4">
+        <v>0</v>
+      </c>
+      <c r="I75" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="G75" s="4">
-        <v>1</v>
-      </c>
-      <c r="H75" s="4">
-        <v>0</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>262</v>
-      </c>
       <c r="J75" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -4433,22 +4435,22 @@
         <v>-1</v>
       </c>
       <c r="E76" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F76" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="G76" s="4">
+        <v>1</v>
+      </c>
+      <c r="H76" s="4">
+        <v>0</v>
+      </c>
+      <c r="I76" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="G76" s="4">
-        <v>1</v>
-      </c>
-      <c r="H76" s="4">
-        <v>0</v>
-      </c>
-      <c r="I76" s="4" t="s">
-        <v>265</v>
-      </c>
       <c r="J76" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -4465,22 +4467,22 @@
         <v>-1</v>
       </c>
       <c r="E77" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F77" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="G77" s="4">
+        <v>1</v>
+      </c>
+      <c r="H77" s="4">
+        <v>1</v>
+      </c>
+      <c r="I77" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="G77" s="4">
-        <v>1</v>
-      </c>
-      <c r="H77" s="4">
-        <v>1</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>268</v>
-      </c>
       <c r="J77" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -4497,22 +4499,22 @@
         <v>-1</v>
       </c>
       <c r="E78" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F78" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="G78" s="4">
+        <v>1</v>
+      </c>
+      <c r="H78" s="4">
+        <v>1</v>
+      </c>
+      <c r="I78" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="G78" s="4">
-        <v>1</v>
-      </c>
-      <c r="H78" s="4">
-        <v>1</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="J78" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -4529,11 +4531,11 @@
         <v>13</v>
       </c>
       <c r="E79" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F79" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="F79" s="4" t="s">
-        <v>273</v>
-      </c>
       <c r="G79" s="4">
         <v>0</v>
       </c>
@@ -4544,7 +4546,7 @@
         <v>1</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -4561,11 +4563,11 @@
         <v>13</v>
       </c>
       <c r="E80" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F80" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F80" s="4" t="s">
-        <v>275</v>
-      </c>
       <c r="G80" s="4">
         <v>0</v>
       </c>
@@ -4576,7 +4578,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -4593,22 +4595,22 @@
         <v>-1</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F81" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G81" s="4">
+        <v>0</v>
+      </c>
+      <c r="H81" s="4">
+        <v>0</v>
+      </c>
+      <c r="I81" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="G81" s="4">
-        <v>0</v>
-      </c>
-      <c r="H81" s="4">
-        <v>0</v>
-      </c>
-      <c r="I81" s="4" t="s">
-        <v>277</v>
-      </c>
       <c r="J81" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -4625,22 +4627,22 @@
         <v>-1</v>
       </c>
       <c r="E82" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F82" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="G82" s="4">
+        <v>0</v>
+      </c>
+      <c r="H82" s="4">
+        <v>0</v>
+      </c>
+      <c r="I82" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="G82" s="4">
-        <v>0</v>
-      </c>
-      <c r="H82" s="4">
-        <v>0</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>280</v>
-      </c>
       <c r="J82" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -4657,22 +4659,22 @@
         <v>-1</v>
       </c>
       <c r="E83" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F83" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="G83" s="4">
+        <v>0</v>
+      </c>
+      <c r="H83" s="4">
+        <v>0</v>
+      </c>
+      <c r="I83" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="G83" s="4">
-        <v>0</v>
-      </c>
-      <c r="H83" s="4">
-        <v>0</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>283</v>
-      </c>
       <c r="J83" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -4689,22 +4691,22 @@
         <v>18</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F84" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="G84" s="4">
+        <v>0</v>
+      </c>
+      <c r="H84" s="4">
+        <v>0</v>
+      </c>
+      <c r="I84" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="G84" s="4">
-        <v>0</v>
-      </c>
-      <c r="H84" s="4">
-        <v>0</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>285</v>
-      </c>
       <c r="J84" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -4721,10 +4723,10 @@
         <v>18</v>
       </c>
       <c r="E85" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F85" s="4" t="s">
         <v>286</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>287</v>
       </c>
       <c r="G85" s="4">
         <v>0</v>
@@ -4736,7 +4738,7 @@
         <v>2</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -4753,22 +4755,22 @@
         <v>-1</v>
       </c>
       <c r="E86" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F86" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="G86" s="4">
+        <v>0</v>
+      </c>
+      <c r="H86" s="4">
+        <v>0</v>
+      </c>
+      <c r="I86" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="G86" s="4">
-        <v>0</v>
-      </c>
-      <c r="H86" s="4">
-        <v>0</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>290</v>
-      </c>
       <c r="J86" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -4785,22 +4787,22 @@
         <v>-1</v>
       </c>
       <c r="E87" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F87" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="G87" s="4">
+        <v>0</v>
+      </c>
+      <c r="H87" s="4">
+        <v>0</v>
+      </c>
+      <c r="I87" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="G87" s="4">
-        <v>0</v>
-      </c>
-      <c r="H87" s="4">
-        <v>0</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>293</v>
-      </c>
       <c r="J87" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -4817,11 +4819,11 @@
         <v>22</v>
       </c>
       <c r="E88" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F88" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="F88" s="4" t="s">
-        <v>295</v>
-      </c>
       <c r="G88" s="4">
         <v>0</v>
       </c>
@@ -4832,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -4849,10 +4851,10 @@
         <v>22</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G89" s="4">
         <v>0</v>
@@ -4864,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -4881,22 +4883,22 @@
         <v>-1</v>
       </c>
       <c r="E90" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G90" s="4">
+        <v>0</v>
+      </c>
+      <c r="H90" s="4">
+        <v>0</v>
+      </c>
+      <c r="I90" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="F90" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G90" s="4">
-        <v>0</v>
-      </c>
-      <c r="H90" s="4">
-        <v>0</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>298</v>
-      </c>
       <c r="J90" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -4913,22 +4915,22 @@
         <v>-1</v>
       </c>
       <c r="E91" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F91" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="G91" s="4">
+        <v>0</v>
+      </c>
+      <c r="H91" s="4">
+        <v>1</v>
+      </c>
+      <c r="I91" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="G91" s="4">
-        <v>0</v>
-      </c>
-      <c r="H91" s="4">
-        <v>1</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>301</v>
-      </c>
       <c r="J91" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -4945,10 +4947,10 @@
         <v>-1</v>
       </c>
       <c r="E92" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F92" s="4" t="s">
         <v>302</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>303</v>
       </c>
       <c r="G92" s="4">
         <v>1</v>
@@ -4957,10 +4959,10 @@
         <v>6</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -4977,22 +4979,22 @@
         <v>27</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F93" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G93" s="4">
+        <v>0</v>
+      </c>
+      <c r="H93" s="4">
+        <v>0</v>
+      </c>
+      <c r="I93" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="G93" s="4">
-        <v>0</v>
-      </c>
-      <c r="H93" s="4">
-        <v>0</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>306</v>
-      </c>
       <c r="J93" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -5009,10 +5011,10 @@
         <v>-1</v>
       </c>
       <c r="E94" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="F94" s="4" t="s">
         <v>307</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>308</v>
       </c>
       <c r="G94" s="4">
         <v>4</v>
@@ -5021,10 +5023,10 @@
         <v>0</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -5041,22 +5043,22 @@
         <v>-1</v>
       </c>
       <c r="E95" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F95" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="F95" s="4" t="s">
+      <c r="G95" s="4">
+        <v>1</v>
+      </c>
+      <c r="H95" s="4">
+        <v>0</v>
+      </c>
+      <c r="I95" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="G95" s="4">
-        <v>1</v>
-      </c>
-      <c r="H95" s="4">
-        <v>0</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>312</v>
-      </c>
       <c r="J95" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
